--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-device-Period-implantation.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-device-Period-implantation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$10</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="128">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-02T17:20:16+02:00</t>
+    <t>2023-07-18T12:08:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -341,81 +341,56 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
+    <t>Extension.value[x].id</t>
+  </si>
+  <si>
+    <t>Extension.value[x].extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Extension.value[x].start</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
-    <t>closed</t>
+    <t>Date de première mise en œuvre de l'activité de soin.</t>
+  </si>
+  <si>
+    <t>The start of the period. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>Synonyme : date de mise en œuvre</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t>ele-1
+per-1</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>Extension.value[x]:valuePeriod</t>
-  </si>
-  <si>
-    <t>valuePeriod</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valuePeriod.id</t>
-  </si>
-  <si>
-    <t>Extension.value[x].id</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valuePeriod.extension</t>
-  </si>
-  <si>
-    <t>Extension.value[x].extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valuePeriod.start</t>
-  </si>
-  <si>
-    <t>Extension.value[x].start</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Date de première mise en œuvre de l'activité de soin.</t>
-  </si>
-  <si>
-    <t>The start of the period. The boundary is inclusive.</t>
-  </si>
-  <si>
-    <t>Synonyme : date de mise en œuvre</t>
-  </si>
-  <si>
-    <t>Period.start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">per-1
-</t>
-  </si>
-  <si>
     <t>./low</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valuePeriod.end</t>
   </si>
   <si>
     <t>Extension.value[x].end</t>
@@ -756,7 +731,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AK10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -765,42 +740,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.40625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.58203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="27.703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="9.734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="14.21484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.80078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="17.60546875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.4453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1216,7 +1191,7 @@
         <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>94</v>
@@ -1403,14 +1378,16 @@
         <v>74</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AC6" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>101</v>
@@ -1422,10 +1399,10 @@
         <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>100</v>
@@ -1433,14 +1410,12 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
         <v>74</v>
       </c>
@@ -1461,13 +1436,13 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1518,7 +1493,7 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
@@ -1533,26 +1508,26 @@
         <v>74</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>74</v>
@@ -1564,15 +1539,17 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>74</v>
@@ -1609,74 +1586,74 @@
         <v>74</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="AD8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -1714,42 +1691,42 @@
         <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>86</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1763,16 +1740,16 @@
         <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>122</v>
@@ -1787,7 +1764,9 @@
       <c r="P10" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q10" s="2"/>
+      <c r="Q10" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="R10" t="s" s="2">
         <v>74</v>
       </c>
@@ -1831,7 +1810,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -1840,124 +1819,17 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>127</v>
       </c>
     </row>
-    <row r="11" hidden="true">
-      <c r="A11" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O11" s="2"/>
-      <c r="P11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q11" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="R11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>135</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AK11">
+  <autoFilter ref="A1:AK10">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1967,7 +1839,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI10">
+  <conditionalFormatting sqref="A2:AI9">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
